--- a/data/trans_dic/P64D$bicicleta_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$bicicleta_2023-Provincia-trans_dic.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008708965713512276</v>
+        <v>0.0046873516477942</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.00264024735951075</v>
+        <v>0.004900655673432286</v>
       </c>
     </row>
     <row r="6">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07358014820766066</v>
+        <v>0.07241650697444273</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.04016966216974008</v>
+        <v>0.0402848416045093</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.005732669339885619</v>
+        <v>0.00573266933988562</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.01632994761179423</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00422204033798588</v>
+        <v>0.004276405231357038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002669157299561901</v>
+        <v>0.002285239872807258</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.031985097059847</v>
+        <v>0.02887773992210733</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0451948412064867</v>
+        <v>0.0446207745062096</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02509288464520087</v>
+        <v>0.02413773514448642</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>0.01737959642726575</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01810081284739504</v>
+        <v>0.01810081284739505</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006074097038857362</v>
+        <v>0.006104913542885448</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005495682160974884</v>
+        <v>0.005624305445193813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007560603162693243</v>
+        <v>0.006133635994330278</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05384466480375009</v>
+        <v>0.05018873854640771</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05128147323411204</v>
+        <v>0.04770393572645584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03704166168280009</v>
+        <v>0.03583586411998037</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05007425458731917</v>
+        <v>0.05007425458731916</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.009361669604770912</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01529479157557644</v>
+        <v>0.01813594950442607</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01335141968942398</v>
+        <v>0.01165255632519766</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1353802890827556</v>
+        <v>0.1361606198459389</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03037900377514141</v>
+        <v>0.03137472341473021</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08165613821271356</v>
+        <v>0.07419536825092807</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>0.005567335135042441</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.003735425252003381</v>
+        <v>0.00373542525200338</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.004712011615958378</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02578751180481129</v>
+        <v>0.02284212761220223</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01890150971910989</v>
+        <v>0.01884625154680126</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01793935749124831</v>
+        <v>0.01782605052437051</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.012760483001428</v>
+        <v>0.01276048300142801</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.007769008760736842</v>
+        <v>0.00776900876073684</v>
       </c>
     </row>
     <row r="20">
@@ -867,11 +867,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04507098451090098</v>
+        <v>0.03880324822155746</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02671612112460932</v>
+        <v>0.02790163711225128</v>
       </c>
     </row>
     <row r="22">
@@ -889,7 +889,7 @@
         <v>0.01802445700825211</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.00802722597893973</v>
+        <v>0.008027225978939729</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.01320122996408074</v>
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006145133100891055</v>
+        <v>0.006850254151726885</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001999672111074539</v>
+        <v>0.00199513817387371</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006472937520345927</v>
+        <v>0.005803690316207023</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04611097822330423</v>
+        <v>0.0477483872421128</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02029739258963488</v>
+        <v>0.02037626238575924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02680876397291756</v>
+        <v>0.02785546034380103</v>
       </c>
     </row>
     <row r="25">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007475862957771057</v>
+        <v>0.007546424887218396</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0102522254138595</v>
+        <v>0.01081039448655391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01227947287627885</v>
+        <v>0.01150292085000429</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04032445448853558</v>
+        <v>0.0414118218884949</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04321497965324005</v>
+        <v>0.04213679815940115</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03667962275431841</v>
+        <v>0.03442641647246575</v>
       </c>
     </row>
     <row r="28">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01362897283458133</v>
+        <v>0.01296473296099605</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.007115570315910978</v>
+        <v>0.007129485185654203</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01130035394062965</v>
+        <v>0.01160502882632028</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02972965084137843</v>
+        <v>0.03035942705031936</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01674358295999043</v>
+        <v>0.01659293274163633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02227899425208083</v>
+        <v>0.02247900702577365</v>
       </c>
     </row>
     <row r="31">
@@ -1182,11 +1182,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1727</v>
+        <v>929</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>923</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="7">
@@ -1197,11 +1197,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14588</v>
+        <v>14357</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>14041</v>
+        <v>14081</v>
       </c>
     </row>
     <row r="8">
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1123</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8021</v>
+        <v>7241</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7681</v>
+        <v>7584</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10557</v>
+        <v>10155</v>
       </c>
     </row>
     <row r="12">
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2031</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="15">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7985</v>
+        <v>7443</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6169</v>
+        <v>5739</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9949</v>
+        <v>9626</v>
       </c>
     </row>
     <row r="16">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3183</v>
+        <v>3774</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5161</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="19">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28171</v>
+        <v>28333</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5421</v>
+        <v>5598</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31562</v>
+        <v>28678</v>
       </c>
     </row>
     <row r="20">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3468</v>
+        <v>3072</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4525</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="24">
@@ -1553,11 +1553,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6064</v>
+        <v>5220</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5904</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="28">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2350</v>
+        <v>2619</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4782</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="31">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17632</v>
+        <v>18258</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7235</v>
+        <v>7263</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19807</v>
+        <v>20581</v>
       </c>
     </row>
     <row r="32">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3375</v>
+        <v>3406</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3188</v>
+        <v>3361</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>9361</v>
+        <v>8769</v>
       </c>
     </row>
     <row r="35">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>18202</v>
+        <v>18693</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>13437</v>
+        <v>13102</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>27962</v>
+        <v>26244</v>
       </c>
     </row>
     <row r="36">
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>26007</v>
+        <v>24739</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>10613</v>
+        <v>10634</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>38419</v>
+        <v>39454</v>
       </c>
     </row>
     <row r="39">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>56730</v>
+        <v>57932</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>24974</v>
+        <v>24750</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>75743</v>
+        <v>76423</v>
       </c>
     </row>
     <row r="40">
